--- a/Data/data_waterlevels/obs/06_Steady_state_groundwater_obs.xlsx
+++ b/Data/data_waterlevels/obs/06_Steady_state_groundwater_obs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,11 +510,6 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Season</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
           <t>Sample timeframe</t>
         </is>
       </c>
@@ -566,11 +561,6 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>1969_Wet</t>
         </is>
       </c>
@@ -622,24 +612,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>1969_Wet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61712824</v>
+        <v>61712850</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>25461</v>
+        <v>25384</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>1969</v>
@@ -650,36 +635,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28.04</v>
+        <v>48.77</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5 849</t>
+          <t>Bore</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>366618.02</v>
+        <v>367043.03</v>
       </c>
       <c r="K4" t="n">
-        <v>6702134.46</v>
+        <v>6689968.47</v>
       </c>
       <c r="L4" t="n">
-        <v>249.4593505859375</v>
+        <v>274.3382263183594</v>
       </c>
       <c r="M4" t="n">
-        <v>227.3593505859375</v>
+        <v>243.8582263183594</v>
       </c>
       <c r="N4" t="n">
-        <v>221.4193505859375</v>
+        <v>225.5682263183594</v>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -687,7 +667,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61712850</v>
+        <v>61712866</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>25384</v>
@@ -704,9 +684,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>62.79</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.51</v>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
@@ -714,26 +696,21 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>367043.03</v>
+        <v>363811.03</v>
       </c>
       <c r="K5" t="n">
-        <v>6689968.47</v>
+        <v>6722277.47</v>
       </c>
       <c r="L5" t="n">
-        <v>274.3382263183594</v>
+        <v>275.8987731933594</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8582263183594</v>
+        <v>235.0537731933594</v>
       </c>
       <c r="N5" t="n">
-        <v>225.5682263183594</v>
+        <v>213.1087731933594</v>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -741,7 +718,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61712866</v>
+        <v>61712877</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>25384</v>
@@ -758,11 +735,9 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="G6" t="n">
-        <v>19.51</v>
-      </c>
+        <v>48.77</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -770,26 +745,21 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>363811.03</v>
+        <v>365935.01</v>
       </c>
       <c r="K6" t="n">
-        <v>6722277.47</v>
+        <v>6710898.45</v>
       </c>
       <c r="L6" t="n">
-        <v>275.8987731933594</v>
+        <v>278.230712890625</v>
       </c>
       <c r="M6" t="n">
-        <v>235.0537731933594</v>
+        <v>245.465712890625</v>
       </c>
       <c r="N6" t="n">
-        <v>213.1087731933594</v>
+        <v>229.460712890625</v>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -797,7 +767,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61712877</v>
+        <v>70111706</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>25384</v>
@@ -814,7 +784,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>48.77</v>
+        <v>91.44</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -824,26 +794,21 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>365935.01</v>
+        <v>354409.02</v>
       </c>
       <c r="K7" t="n">
-        <v>6710898.45</v>
+        <v>6745612.49</v>
       </c>
       <c r="L7" t="n">
-        <v>278.230712890625</v>
+        <v>299.8118896484375</v>
       </c>
       <c r="M7" t="n">
-        <v>245.465712890625</v>
+        <v>244.9468896484375</v>
       </c>
       <c r="N7" t="n">
-        <v>229.460712890625</v>
+        <v>208.3718896484375</v>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -851,53 +816,50 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70111706</v>
+        <v>70118002</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>25384</v>
+        <v>25408</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>1969</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ground level</t>
+          <t>Top of casing</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>91.44</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>8.51</v>
+      </c>
+      <c r="G8" t="n">
+        <v>214.604</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bore</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>354409.02</v>
+        <v>357945.03</v>
       </c>
       <c r="K8" t="n">
-        <v>6745612.49</v>
+        <v>6741087.48</v>
       </c>
       <c r="L8" t="n">
-        <v>299.8118896484375</v>
+        <v>224.3464202880859</v>
       </c>
       <c r="M8" t="n">
-        <v>244.9468896484375</v>
+        <v>167.9564202880859</v>
       </c>
       <c r="N8" t="n">
-        <v>208.3718896484375</v>
+        <v>215.8364202880859</v>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -905,13 +867,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70118002</v>
+        <v>70118003</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>25477</v>
+        <v>25408</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>1969</v>
@@ -922,38 +884,33 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.529999999999999</v>
+        <v>15.83</v>
       </c>
       <c r="G9" t="n">
-        <v>214.584</v>
+        <v>215.419</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>357945.03</v>
+        <v>359751.05</v>
       </c>
       <c r="K9" t="n">
-        <v>6741087.48</v>
+        <v>6735767.49</v>
       </c>
       <c r="L9" t="n">
-        <v>224.3464202880859</v>
+        <v>233.7315521240234</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9564202880859</v>
+        <v>142.2915521240234</v>
       </c>
       <c r="N9" t="n">
-        <v>215.8164202880859</v>
+        <v>217.9015521240234</v>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -961,13 +918,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>70118003</v>
+        <v>70118006</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>25477</v>
+        <v>25373</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>1969</v>
@@ -978,38 +935,33 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15.85</v>
+        <v>-2.52</v>
       </c>
       <c r="G10" t="n">
-        <v>215.399</v>
+        <v>211.802</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR12(ART)</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>359751.05</v>
+        <v>354317.04</v>
       </c>
       <c r="K10" t="n">
-        <v>6735767.49</v>
+        <v>6741006.49</v>
       </c>
       <c r="L10" t="n">
-        <v>233.7315521240234</v>
+        <v>210.8645935058594</v>
       </c>
       <c r="M10" t="n">
-        <v>142.2915521240234</v>
+        <v>129.1945935058594</v>
       </c>
       <c r="N10" t="n">
-        <v>217.8815521240234</v>
+        <v>213.3845935058594</v>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -1017,13 +969,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70118006</v>
+        <v>70118009</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>25506</v>
+        <v>25408</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>1969</v>
@@ -1034,38 +986,33 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-2.68</v>
+        <v>9.02</v>
       </c>
       <c r="G11" t="n">
-        <v>211.962</v>
+        <v>213.835</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>AR12(ART)</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>354317.04</v>
+        <v>358795.04</v>
       </c>
       <c r="K11" t="n">
-        <v>6741006.49</v>
+        <v>6738632.49</v>
       </c>
       <c r="L11" t="n">
-        <v>210.8645935058594</v>
+        <v>223.0211029052734</v>
       </c>
       <c r="M11" t="n">
-        <v>129.1945935058594</v>
+        <v>168.1561029052734</v>
       </c>
       <c r="N11" t="n">
-        <v>213.5445935058594</v>
+        <v>214.0011029052734</v>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -1073,13 +1020,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>70118009</v>
+        <v>70118010</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>25477</v>
+        <v>25408</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>1969</v>
@@ -1090,38 +1037,33 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.050000000000001</v>
+        <v>59.29</v>
       </c>
       <c r="G12" t="n">
-        <v>213.805</v>
+        <v>212.97</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>358795.04</v>
+        <v>355504.06</v>
       </c>
       <c r="K12" t="n">
-        <v>6738632.49</v>
+        <v>6737077.49</v>
       </c>
       <c r="L12" t="n">
-        <v>223.0211029052734</v>
+        <v>272.0730590820312</v>
       </c>
       <c r="M12" t="n">
-        <v>168.1561029052734</v>
+        <v>154.2680590820312</v>
       </c>
       <c r="N12" t="n">
-        <v>213.9711029052734</v>
+        <v>212.7830590820312</v>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>
@@ -1129,13 +1071,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>70118010</v>
+        <v>70118014</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>25477</v>
+        <v>25408</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>1969</v>
@@ -1146,206 +1088,33 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>59.25</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>213.01</v>
+        <v>213.156</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>355504.06</v>
+        <v>352934.03</v>
       </c>
       <c r="K13" t="n">
-        <v>6737077.49</v>
+        <v>6744728.49</v>
       </c>
       <c r="L13" t="n">
-        <v>272.0730590820312</v>
+        <v>284.1803588867188</v>
       </c>
       <c r="M13" t="n">
-        <v>154.2680590820312</v>
+        <v>198.2303588867188</v>
       </c>
       <c r="N13" t="n">
-        <v>212.8230590820312</v>
+        <v>213.8603588867188</v>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1969_Wet</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>70118014</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>25408</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Top of casing</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>70.31999999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>213.156</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>AR21</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>352934.03</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6744728.49</v>
-      </c>
-      <c r="L14" t="n">
-        <v>284.1803588867188</v>
-      </c>
-      <c r="M14" t="n">
-        <v>198.2303588867188</v>
-      </c>
-      <c r="N14" t="n">
-        <v>213.8603588867188</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1969_Wet</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>70118016</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>25444</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Top of casing</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>93.73999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>212.892</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>AR23</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>355489.07</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6732905.49</v>
-      </c>
-      <c r="L15" t="n">
-        <v>307.6929626464844</v>
-      </c>
-      <c r="M15" t="n">
-        <v>207.1079626464844</v>
-      </c>
-      <c r="N15" t="n">
-        <v>213.9529626464844</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1969_Wet</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>70118017</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>25444</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Top of casing</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>74.20999999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>213.65</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>AR24</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>359691</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6747521.48</v>
-      </c>
-      <c r="L16" t="n">
-        <v>288.5941467285156</v>
-      </c>
-      <c r="M16" t="n">
-        <v>195.6291467285156</v>
-      </c>
-      <c r="N16" t="n">
-        <v>214.3841467285156</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>1969_Wet</t>
         </is>

--- a/Data/data_waterlevels/obs/06_Steady_state_groundwater_obs.xlsx
+++ b/Data/data_waterlevels/obs/06_Steady_state_groundwater_obs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,11 @@
           <t>Sample timeframe</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>model_timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -564,6 +569,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -615,6 +623,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -664,6 +675,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -715,6 +729,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -764,6 +781,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -813,6 +833,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -864,6 +887,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -915,6 +941,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -966,6 +995,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P10" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1017,6 +1049,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P11" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1103,9 @@
           <t>1969_Wet</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>6993</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1118,6 +1156,9 @@
         <is>
           <t>1969_Wet</t>
         </is>
+      </c>
+      <c r="P13" t="n">
+        <v>6993</v>
       </c>
     </row>
   </sheetData>
